--- a/biology/Médecine/Édouard_Quénu/Édouard_Quénu.xlsx
+++ b/biology/Médecine/Édouard_Quénu/Édouard_Quénu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89douard_Qu%C3%A9nu</t>
+          <t>Édouard_Quénu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Édouard Quénu, né le 21 juillet 1852 à Marquise et mort le 28 juillet 1933 à Paris, est un chirurgien français.
 Il est membre de l'Académie des sciences, membre de l'Académie de médecine qu'il préside en 1929. Il est Commandeur de la Légion d'honneur.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89douard_Qu%C3%A9nu</t>
+          <t>Édouard_Quénu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Édouard Quénu, après avoir été interne au collège municipal de Boulogne-sur-Mer, puis au lycée de Douai[1], commence ses études de médecine à Paris en 1871. Il est reçu au concours de l'Internat en 1875, devient prosecteur en 1883 puis agrégé de la Faculté en 1886. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Édouard Quénu, après avoir été interne au collège municipal de Boulogne-sur-Mer, puis au lycée de Douai, commence ses études de médecine à Paris en 1871. Il est reçu au concours de l'Internat en 1875, devient prosecteur en 1883 puis agrégé de la Faculté en 1886. 
 En 1890, il est nommé chef de service et exerce à l'hôpital Cochin, à la tête d'un important service qu'il conserve jusqu'à la fin de sa carrière. 
 En 1907, il est nommé à la chaire de médecine opératoire, puis à la chaire de clinique chirurgicale qu'il installe à Cochin.
 Dès 1889, élève et assistant de Félix Terrier, Édouard Quénu participe activement au développement et à l'amélioration de l'asepsie naissante. Particulièrement préoccupé de celle du chirurgien lui-même, il réussira, après avoir brisé bien des résistances, à introduire en France le port des gants de caoutchouc pour les opérations septiques. Il fait ainsi réaliser à la chirurgie un progrès remarquable. 
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89douard_Qu%C3%A9nu</t>
+          <t>Édouard_Quénu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Au CHU Cochin, à Paris, un service de chirurgie porte aujourd'hui son nom.
 La rue Édouard-Quénu (ancienne portion de la rue Broca) dans le 5e arrondissement de Paris porte son nom depuis 1938.
